--- a/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>61887</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46228</v>
+        <v>46987</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77966</v>
+        <v>78949</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06022514531164597</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04498705663354791</v>
+        <v>0.04572587209143553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07587215802799288</v>
+        <v>0.07682889753665288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -765,19 +765,19 @@
         <v>76345</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59783</v>
+        <v>61079</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94467</v>
+        <v>93942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05817337813367419</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04555382490637909</v>
+        <v>0.04654094087673038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07198202338961969</v>
+        <v>0.07158220202196923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>128</v>
@@ -786,19 +786,19 @@
         <v>138232</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113182</v>
+        <v>115982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160352</v>
+        <v>163215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05907441103878421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04836914761086458</v>
+        <v>0.04956590723316844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0685278226386274</v>
+        <v>0.06975145299459475</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>965704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>949625</v>
+        <v>948642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>981363</v>
+        <v>980604</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.939774854688354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9241278419720071</v>
+        <v>0.9231711024633472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.955012943366452</v>
+        <v>0.9542741279085646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1218</v>
@@ -836,19 +836,19 @@
         <v>1236020</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1217898</v>
+        <v>1218423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1252582</v>
+        <v>1251286</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9418266218663258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9280179766103803</v>
+        <v>0.9284177979780309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9544461750936208</v>
+        <v>0.9534590591232697</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2194</v>
@@ -857,19 +857,19 @@
         <v>2201724</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2179604</v>
+        <v>2176741</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2226774</v>
+        <v>2223974</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9409255889612158</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9314721773613726</v>
+        <v>0.930248547005405</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9516308523891348</v>
+        <v>0.9504340927668314</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>75065</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59115</v>
+        <v>58390</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94859</v>
+        <v>94542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04449284942929748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03503873627785645</v>
+        <v>0.03460904481478305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05622520215771575</v>
+        <v>0.05603733191589797</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -982,19 +982,19 @@
         <v>100989</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81932</v>
+        <v>80541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122123</v>
+        <v>120747</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06381536309368249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05177320643546833</v>
+        <v>0.05089377919340918</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0771694584292324</v>
+        <v>0.07629998116326384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>165</v>
@@ -1003,19 +1003,19 @@
         <v>176054</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>152297</v>
+        <v>150349</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>204005</v>
+        <v>201563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05384503736078449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0465788972538788</v>
+        <v>0.04598319752990789</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06239365096839219</v>
+        <v>0.06164677735076031</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1612058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1592264</v>
+        <v>1592581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1628008</v>
+        <v>1628733</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9555071505707026</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9437747978422844</v>
+        <v>0.943962668084102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9649612637221435</v>
+        <v>0.965390955185217</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1454</v>
@@ -1053,19 +1053,19 @@
         <v>1481536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1460402</v>
+        <v>1461778</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1500593</v>
+        <v>1501984</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9361846369063175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9228305415707674</v>
+        <v>0.9237000188367362</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9482267935645315</v>
+        <v>0.949106220806591</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3027</v>
@@ -1074,19 +1074,19 @@
         <v>3093595</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3065644</v>
+        <v>3068086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3117352</v>
+        <v>3119300</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9461549626392155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9376063490316078</v>
+        <v>0.9383532226492397</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9534211027461211</v>
+        <v>0.9540168024700919</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20355</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11440</v>
+        <v>12946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31781</v>
+        <v>31679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03691458426063455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02074738024838895</v>
+        <v>0.02347805805254492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0576366945320085</v>
+        <v>0.05745146506977792</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1199,19 +1199,19 @@
         <v>23725</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15364</v>
+        <v>15170</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34785</v>
+        <v>34011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04990717529887578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03231764737063441</v>
+        <v>0.0319106685720949</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07317027163735511</v>
+        <v>0.07154354532926675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1220,19 +1220,19 @@
         <v>44080</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31955</v>
+        <v>32150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57464</v>
+        <v>60177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04292994627094285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03112099624704994</v>
+        <v>0.03131099306583836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05596461224597948</v>
+        <v>0.05860600620400123</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>531053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519627</v>
+        <v>519729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539968</v>
+        <v>538462</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9630854157393655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9423633054679911</v>
+        <v>0.9425485349302221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9792526197516109</v>
+        <v>0.9765219419474553</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>428</v>
@@ -1270,19 +1270,19 @@
         <v>451667</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>440607</v>
+        <v>441381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>460028</v>
+        <v>460222</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9500928247011242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9268297283626457</v>
+        <v>0.9284564546707331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9676823526293656</v>
+        <v>0.9680893314279051</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>937</v>
@@ -1291,19 +1291,19 @@
         <v>982720</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>969336</v>
+        <v>966623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>994845</v>
+        <v>994650</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9570700537290572</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9440353877540204</v>
+        <v>0.9413939937959986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9688790037529499</v>
+        <v>0.9686890069341615</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>157307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04816314961248738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>188</v>
@@ -1416,19 +1416,19 @@
         <v>201060</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05965660651832618</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>334</v>
@@ -1437,19 +1437,19 @@
         <v>358366</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05400007460570384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3108815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3083612</v>
+        <v>3081982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3133673</v>
+        <v>3130525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9518368503875126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9441204259408947</v>
+        <v>0.9436212675509682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.959447772740549</v>
+        <v>0.9584839295246893</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3100</v>
@@ -1487,19 +1487,19 @@
         <v>3169222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3139718</v>
+        <v>3139221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3195907</v>
+        <v>3196603</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9403433934816738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9315891909397891</v>
+        <v>0.9314415688226703</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9482610463375258</v>
+        <v>0.9484674356740966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6158</v>
@@ -1508,19 +1508,19 @@
         <v>6278038</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6239068</v>
+        <v>6243210</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6316109</v>
+        <v>6318514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9459999253942961</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9401278663982022</v>
+        <v>0.9407519796504451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9517366057710924</v>
+        <v>0.9520991211687854</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>52458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38234</v>
+        <v>38653</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66945</v>
+        <v>67646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0541080344545059</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03943617370136831</v>
+        <v>0.03986823264286604</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06905059523313306</v>
+        <v>0.06977369856743645</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -1872,19 +1872,19 @@
         <v>70692</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55161</v>
+        <v>55872</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88202</v>
+        <v>89210</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05305504538253439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04139864889023428</v>
+        <v>0.04193256788506423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06619660899197646</v>
+        <v>0.06695316986319934</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -1893,19 +1893,19 @@
         <v>123150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101059</v>
+        <v>103400</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144904</v>
+        <v>146908</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05349853447384879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04390184281477533</v>
+        <v>0.04491854547569582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06294874034896868</v>
+        <v>0.06381942041296923</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>917052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>902565</v>
+        <v>901864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>931276</v>
+        <v>930857</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.945891965545494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9309494047668672</v>
+        <v>0.9302263014325637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9605638262986318</v>
+        <v>0.9601317673571341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1175</v>
@@ -1943,19 +1943,19 @@
         <v>1261734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1244224</v>
+        <v>1243216</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1277265</v>
+        <v>1276554</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9469449546174656</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9338033910080235</v>
+        <v>0.9330468301368006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9586013511097656</v>
+        <v>0.9580674321149357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2027</v>
@@ -1964,19 +1964,19 @@
         <v>2178786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2157032</v>
+        <v>2155028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2200877</v>
+        <v>2198536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9465014655261512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9370512596510311</v>
+        <v>0.9361805795870308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9560981571852246</v>
+        <v>0.955081454524304</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>104852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85008</v>
+        <v>85248</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124896</v>
+        <v>125903</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05359336403765706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04345057289063427</v>
+        <v>0.04357298127109151</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0638387266197583</v>
+        <v>0.06435319555479696</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -2089,19 +2089,19 @@
         <v>124578</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104480</v>
+        <v>103810</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147284</v>
+        <v>147426</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07120166744072183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05971487963571945</v>
+        <v>0.05933189132425663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08417919205586832</v>
+        <v>0.0842599316032733</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>216</v>
@@ -2110,19 +2110,19 @@
         <v>229430</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>200276</v>
+        <v>201181</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>261194</v>
+        <v>259618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06190629539138234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05403981738067291</v>
+        <v>0.0542839022921349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07047710261125019</v>
+        <v>0.07005192599242031</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1851579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1831535</v>
+        <v>1830528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1871423</v>
+        <v>1871183</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.946406635962343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9361612733802417</v>
+        <v>0.9356468044452032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9565494271093656</v>
+        <v>0.9564270187289086</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1511</v>
@@ -2160,19 +2160,19 @@
         <v>1625075</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1602369</v>
+        <v>1602227</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1645173</v>
+        <v>1645843</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9287983325592781</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9158208079441317</v>
+        <v>0.9157400683967265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9402851203642806</v>
+        <v>0.9406681086757432</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3261</v>
@@ -2181,19 +2181,19 @@
         <v>3476654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3444890</v>
+        <v>3446466</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3505808</v>
+        <v>3504903</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9380937046086176</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9295228973887496</v>
+        <v>0.9299480740075796</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9459601826193271</v>
+        <v>0.9457160977078649</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>5040</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1800</v>
+        <v>1659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11616</v>
+        <v>11233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0104745037074597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003740902006537125</v>
+        <v>0.003448771150019924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02414097045876775</v>
+        <v>0.02334451101670759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -2306,19 +2306,19 @@
         <v>24429</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15866</v>
+        <v>14494</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36008</v>
+        <v>35601</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05326396545800333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03459491341647442</v>
+        <v>0.0316017358392052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07851084438800028</v>
+        <v>0.07762388871714344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -2327,19 +2327,19 @@
         <v>29469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19357</v>
+        <v>19408</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43187</v>
+        <v>42262</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03135587829394986</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02059697678557329</v>
+        <v>0.0206504173320886</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04595291567453899</v>
+        <v>0.0449686172255216</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>476141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469565</v>
+        <v>469948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479381</v>
+        <v>479522</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9895254962925403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9758590295412326</v>
+        <v>0.9766554889832926</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9962590979934628</v>
+        <v>0.99655122884998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>390</v>
@@ -2377,19 +2377,19 @@
         <v>434202</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>422623</v>
+        <v>423030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>442765</v>
+        <v>444137</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9467360345419966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9214891556119998</v>
+        <v>0.9223761112828563</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9654050865835256</v>
+        <v>0.9683982641607947</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -2398,19 +2398,19 @@
         <v>910344</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>896626</v>
+        <v>897551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>920456</v>
+        <v>920405</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9686441217060502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.954047084325461</v>
+        <v>0.9550313827744785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9794030232144265</v>
+        <v>0.9793495826679114</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>162350</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137274</v>
+        <v>137088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190244</v>
+        <v>188421</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04765022146722822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04029042737892476</v>
+        <v>0.04023578365216995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05583726436937242</v>
+        <v>0.05530197391657216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -2523,19 +2523,19 @@
         <v>219699</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191625</v>
+        <v>191705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>249363</v>
+        <v>249849</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06204931728402835</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05412039264024376</v>
+        <v>0.05414312294723592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07042738386006676</v>
+        <v>0.07056467071041239</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>361</v>
@@ -2544,19 +2544,19 @@
         <v>382049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>347433</v>
+        <v>344269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>424479</v>
+        <v>422418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05498819683894814</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05000592273892868</v>
+        <v>0.04955048776961168</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06109513654898779</v>
+        <v>0.06079848664447383</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3244773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3216879</v>
+        <v>3218702</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3269849</v>
+        <v>3270035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9523497785327718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9441627356306276</v>
+        <v>0.9446980260834278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9597095726210753</v>
+        <v>0.9597642163478299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3076</v>
@@ -2594,19 +2594,19 @@
         <v>3321011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3291347</v>
+        <v>3290861</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3349085</v>
+        <v>3349005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9379506827159717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.929572616139933</v>
+        <v>0.9294353292895873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9458796073597562</v>
+        <v>0.945856877052764</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6111</v>
@@ -2615,19 +2615,19 @@
         <v>6565784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6523354</v>
+        <v>6525415</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6600400</v>
+        <v>6603564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9450118031610518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9389048634510119</v>
+        <v>0.9392015133555263</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9499940772610712</v>
+        <v>0.9504495122303883</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>37000</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26758</v>
+        <v>26178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50699</v>
+        <v>49738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04940808245981522</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03573167911977959</v>
+        <v>0.03495777476179677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06770192354755637</v>
+        <v>0.06641817308477119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -2979,19 +2979,19 @@
         <v>51964</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39782</v>
+        <v>38339</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67649</v>
+        <v>66333</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05252550894016055</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04021188315108529</v>
+        <v>0.03875251732542638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06837919371789113</v>
+        <v>0.06704965048946011</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -3000,19 +3000,19 @@
         <v>88964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73253</v>
+        <v>73170</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108945</v>
+        <v>108623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05118242881704416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04214362697239374</v>
+        <v>0.04209564331475101</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06267784741216169</v>
+        <v>0.06249263810757542</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>711857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>698158</v>
+        <v>699119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>722099</v>
+        <v>722679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9505919175401848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9322980764524437</v>
+        <v>0.933581826915229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9642683208802205</v>
+        <v>0.9650422252382033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>837</v>
@@ -3050,19 +3050,19 @@
         <v>937353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>921668</v>
+        <v>922984</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>949535</v>
+        <v>950978</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9474744910598395</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9316208062821089</v>
+        <v>0.9329503495105399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9597881168489147</v>
+        <v>0.9612474826745736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1558</v>
@@ -3071,19 +3071,19 @@
         <v>1649210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1629229</v>
+        <v>1629551</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1664921</v>
+        <v>1665004</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9488175711829558</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9373221525878384</v>
+        <v>0.9375073618924245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9578563730276063</v>
+        <v>0.957904356685249</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>89020</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70786</v>
+        <v>70460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109363</v>
+        <v>109326</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04305828169430383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03423892352431653</v>
+        <v>0.03408119511071973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05289797207234032</v>
+        <v>0.05288038969213835</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -3196,19 +3196,19 @@
         <v>80532</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64690</v>
+        <v>63442</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99158</v>
+        <v>101099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04071020040010737</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03270166710367572</v>
+        <v>0.03207085747377544</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05012604903897944</v>
+        <v>0.05110709630664526</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>156</v>
@@ -3217,19 +3217,19 @@
         <v>169552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>145898</v>
+        <v>145239</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200166</v>
+        <v>197994</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04191014069019977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03606337078521731</v>
+        <v>0.03590047239211083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04947732044876396</v>
+        <v>0.04894040857023225</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1978407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1958064</v>
+        <v>1958101</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1996641</v>
+        <v>1996967</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9569417183056962</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9471020279276599</v>
+        <v>0.947119610307862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9657610764756835</v>
+        <v>0.9659188048892803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1820</v>
@@ -3267,19 +3267,19 @@
         <v>1897648</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1879022</v>
+        <v>1877081</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1913490</v>
+        <v>1914738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9592897995998927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9498739509610206</v>
+        <v>0.9488929036933548</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9672983328963243</v>
+        <v>0.9679291425262246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3687</v>
@@ -3288,19 +3288,19 @@
         <v>3876054</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3845440</v>
+        <v>3847612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3899708</v>
+        <v>3900367</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9580898593098002</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.950522679551236</v>
+        <v>0.9510595914297678</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9639366292147827</v>
+        <v>0.9640995276078892</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>19104</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11816</v>
+        <v>11263</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30004</v>
+        <v>28678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03524810733548549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02180045261880788</v>
+        <v>0.02078066596068209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05535864212288717</v>
+        <v>0.05291190258402055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3413,19 +3413,19 @@
         <v>27818</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18567</v>
+        <v>19082</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39828</v>
+        <v>41485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05092352323540189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03398828162895891</v>
+        <v>0.03493052497301002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07290895885299488</v>
+        <v>0.07594217364188705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -3434,19 +3434,19 @@
         <v>46922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34082</v>
+        <v>33925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62671</v>
+        <v>62345</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04311667593494929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0313178522715586</v>
+        <v>0.03117352776837249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05758836297680849</v>
+        <v>0.05728888684440153</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>522884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511984</v>
+        <v>513310</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>530172</v>
+        <v>530725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9647518926645146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.944641357877113</v>
+        <v>0.9470880974159794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9781995473811926</v>
+        <v>0.9792193340393179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>497</v>
@@ -3484,19 +3484,19 @@
         <v>518455</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>506445</v>
+        <v>504788</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>527706</v>
+        <v>527191</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9490764767645982</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9270910411470045</v>
+        <v>0.9240578263581127</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9660117183710408</v>
+        <v>0.9650694750269899</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>976</v>
@@ -3505,19 +3505,19 @@
         <v>1041339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1025590</v>
+        <v>1025916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1054179</v>
+        <v>1054336</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9568833240650507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9424116370231916</v>
+        <v>0.942711113155599</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9686821477284414</v>
+        <v>0.9688264722316277</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>145123</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123422</v>
+        <v>120168</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173322</v>
+        <v>172162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04321374111255338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03675177750325224</v>
+        <v>0.03578257806654699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05161033029620724</v>
+        <v>0.051265030285527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -3630,19 +3630,19 @@
         <v>160315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>138680</v>
+        <v>136097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184446</v>
+        <v>186298</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04562467980713771</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03946757418866354</v>
+        <v>0.03873238276187894</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05249246655033617</v>
+        <v>0.05301928212214166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>285</v>
@@ -3651,19 +3651,19 @@
         <v>305438</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>272516</v>
+        <v>272624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>339987</v>
+        <v>339314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04444648732223433</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03965573437080665</v>
+        <v>0.03967154023532984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04947390186143773</v>
+        <v>0.0493759663086958</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3213149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3184950</v>
+        <v>3186110</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3234850</v>
+        <v>3238104</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9567862588874466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9483896697037927</v>
+        <v>0.9487349697144727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9632482224967478</v>
+        <v>0.9642174219334529</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3154</v>
@@ -3701,19 +3701,19 @@
         <v>3353455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3329324</v>
+        <v>3327472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3375090</v>
+        <v>3377673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9543753201928623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9475075334496637</v>
+        <v>0.9469807178778584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9605324258113364</v>
+        <v>0.9612676172381212</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6221</v>
@@ -3722,19 +3722,19 @@
         <v>6566604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6532055</v>
+        <v>6532728</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6599526</v>
+        <v>6599418</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9555535126777657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9505260981385623</v>
+        <v>0.9506240336913041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9603442656291934</v>
+        <v>0.9603284597646702</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>19015</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12092</v>
+        <v>11643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30234</v>
+        <v>29500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03303498698017826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.021007372741235</v>
+        <v>0.02022782598952544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05252692280400162</v>
+        <v>0.05125225570371137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -4086,19 +4086,19 @@
         <v>21028</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13623</v>
+        <v>14108</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29320</v>
+        <v>29411</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0259325823974895</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01680047308206298</v>
+        <v>0.01739886021213569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0361582967364357</v>
+        <v>0.03627090920990703</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -4107,19 +4107,19 @@
         <v>40043</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28738</v>
+        <v>30125</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52243</v>
+        <v>54429</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02888115676317242</v>
+        <v>0.02888115676317243</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.020727524528107</v>
+        <v>0.02172771384174274</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03768097836756219</v>
+        <v>0.03925745124396293</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>556576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>545357</v>
+        <v>546091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>563499</v>
+        <v>563948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.966965013019822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9474730771959986</v>
+        <v>0.9487477442962887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.978992627258765</v>
+        <v>0.9797721740104746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1383</v>
@@ -4157,19 +4157,19 @@
         <v>789840</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>781548</v>
+        <v>781457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>797245</v>
+        <v>796760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9740674176025107</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9638417032635641</v>
+        <v>0.9637290907900924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9831995269179371</v>
+        <v>0.9826011397878643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2049</v>
@@ -4178,19 +4178,19 @@
         <v>1346416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1334216</v>
+        <v>1332030</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1357721</v>
+        <v>1356334</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9711188432368276</v>
+        <v>0.9711188432368277</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9623190216324379</v>
+        <v>0.9607425487560369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9792724754718932</v>
+        <v>0.9782722861582572</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>60298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45449</v>
+        <v>45200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82316</v>
+        <v>82783</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02723955546148385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02053161879767479</v>
+        <v>0.02041900964830379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03718589296318883</v>
+        <v>0.03739712515722641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -4303,19 +4303,19 @@
         <v>80811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65149</v>
+        <v>65101</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100109</v>
+        <v>100281</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03749437853165284</v>
+        <v>0.03749437853165283</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03022782196976118</v>
+        <v>0.03020529945238366</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04644843130029842</v>
+        <v>0.04652795084931129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>141</v>
@@ -4324,19 +4324,19 @@
         <v>141109</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116725</v>
+        <v>116977</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170338</v>
+        <v>169639</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03229849007649873</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02671714256603263</v>
+        <v>0.02677480152129061</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03898876827342394</v>
+        <v>0.03882875539124964</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2153327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2131309</v>
+        <v>2130842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2168176</v>
+        <v>2168425</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9727604445385161</v>
+        <v>0.9727604445385163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9628141070368108</v>
+        <v>0.9626028748427734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.979468381202325</v>
+        <v>0.9795809903516961</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2807</v>
@@ -4374,19 +4374,19 @@
         <v>2074467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2055169</v>
+        <v>2054997</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2090129</v>
+        <v>2090177</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9625056214683472</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9535515686997016</v>
+        <v>0.9534720491506885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.969772178030239</v>
+        <v>0.9697947005476165</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4736</v>
@@ -4395,19 +4395,19 @@
         <v>4227794</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4198565</v>
+        <v>4199264</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4252178</v>
+        <v>4251926</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9677015099235011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9610112317265762</v>
+        <v>0.9611712446087505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9732828574339676</v>
+        <v>0.9732251984787095</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>15716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8527</v>
+        <v>8813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25630</v>
+        <v>27365</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02234129139399802</v>
+        <v>0.02234129139399803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01212104478738129</v>
+        <v>0.01252883383411348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03643470774795257</v>
+        <v>0.03890142628038878</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4520,19 +4520,19 @@
         <v>18772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11212</v>
+        <v>11168</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31217</v>
+        <v>31570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02587496384771606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01545418108005299</v>
+        <v>0.01539316051745278</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04302886553741896</v>
+        <v>0.0435150527914487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -4541,19 +4541,19 @@
         <v>34488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23371</v>
+        <v>24458</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50315</v>
+        <v>49815</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02413537569310594</v>
+        <v>0.02413537569310593</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01635566187298951</v>
+        <v>0.01711629673299286</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0352111136703906</v>
+        <v>0.03486113198999605</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>687738</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>677824</v>
+        <v>676089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>694927</v>
+        <v>694641</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.977658708606002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9635652922520475</v>
+        <v>0.9610985737196104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9878789552126187</v>
+        <v>0.9874711661658865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>972</v>
@@ -4591,19 +4591,19 @@
         <v>706719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>694274</v>
+        <v>693921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>714279</v>
+        <v>714323</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.974125036152284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9569711344625812</v>
+        <v>0.9564849472085514</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.984545818919947</v>
+        <v>0.9846068394825472</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1632</v>
@@ -4612,19 +4612,19 @@
         <v>1394457</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1378630</v>
+        <v>1379130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1405574</v>
+        <v>1404487</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9758646243068941</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9647888863296095</v>
+        <v>0.9651388680100041</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9836443381270106</v>
+        <v>0.9828837032670072</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>95029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74686</v>
+        <v>76258</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116276</v>
+        <v>120501</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02720808748047049</v>
+        <v>0.02720808748047048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02138377840636889</v>
+        <v>0.02183374000736224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03329153854398211</v>
+        <v>0.03450103029366345</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -4737,19 +4737,19 @@
         <v>120611</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100614</v>
+        <v>99896</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146777</v>
+        <v>143260</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03267134900770515</v>
+        <v>0.03267134900770516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02725453318641763</v>
+        <v>0.02706000745007336</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03975944809333359</v>
+        <v>0.03880659494907738</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -4758,19 +4758,19 @@
         <v>215640</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>187960</v>
+        <v>188946</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249010</v>
+        <v>245826</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03001537019166108</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02616260752698839</v>
+        <v>0.02629982670764786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03466021714240128</v>
+        <v>0.03421711634321951</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3397640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3376393</v>
+        <v>3372168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3417983</v>
+        <v>3416411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9727919125195296</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9667084614560177</v>
+        <v>0.9654989697063364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9786162215936312</v>
+        <v>0.9781662599926377</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5162</v>
@@ -4808,19 +4808,19 @@
         <v>3571026</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3544860</v>
+        <v>3548377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3591023</v>
+        <v>3591741</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9673286509922948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9602405519066664</v>
+        <v>0.9611934050509225</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9727454668135822</v>
+        <v>0.9729399925499266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8417</v>
@@ -4829,19 +4829,19 @@
         <v>6968666</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6935296</v>
+        <v>6938480</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6996346</v>
+        <v>6995360</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9699846298083389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9653397828575986</v>
+        <v>0.9657828836567806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9738373924730116</v>
+        <v>0.9737001732923525</v>
       </c>
     </row>
     <row r="15">
